--- a/configs_pool.xlsx
+++ b/configs_pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pool" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>config_id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>glue</t>
+  </si>
+  <si>
+    <t>task_type</t>
   </si>
 </sst>
 </file>
@@ -445,15 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -461,87 +468,90 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -552,15 +562,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,6 +587,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/configs_pool.xlsx
+++ b/configs_pool.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="pool" sheetId="1" r:id="rId1"/>
-    <sheet name="leader_board" sheetId="2" r:id="rId2"/>
+    <sheet name="leader_board" sheetId="1" r:id="rId1"/>
+    <sheet name="pool" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,114 +20,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>metod</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
   <si>
     <t>config_id</t>
   </si>
   <si>
-    <t>metod</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>model</t>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>speed_coef</t>
+  </si>
+  <si>
+    <t>memory_coef</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>perplexity</t>
+  </si>
+  <si>
+    <t>bert_score</t>
+  </si>
+  <si>
+    <t>meteor</t>
+  </si>
+  <si>
+    <t>iou</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>cider</t>
+  </si>
+  <si>
+    <t>spice</t>
+  </si>
+  <si>
+    <t>clip_score_vision</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>flops</t>
+  </si>
+  <si>
+    <t>throughput</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>ece</t>
+  </si>
+  <si>
+    <t>mce</t>
+  </si>
+  <si>
+    <t>mmlu</t>
+  </si>
+  <si>
+    <t>helm</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>author_id</t>
-  </si>
-  <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t>speed_cf</t>
-  </si>
-  <si>
-    <t>mem_cf</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>perplexity</t>
-  </si>
-  <si>
-    <t>bert_score</t>
-  </si>
-  <si>
-    <t>meteor</t>
-  </si>
-  <si>
-    <t>iou</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>cider</t>
-  </si>
-  <si>
-    <t>spice</t>
-  </si>
-  <si>
-    <t>clip_score_vision</t>
-  </si>
-  <si>
-    <t>latency</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>flops</t>
-  </si>
-  <si>
-    <t>throughput</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>ece</t>
-  </si>
-  <si>
-    <t>mce</t>
-  </si>
-  <si>
-    <t>mmlu</t>
-  </si>
-  <si>
-    <t>helm</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>task_type</t>
   </si>
 </sst>
 </file>
@@ -163,11 +157,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,111 +439,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -562,35 +477,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/configs_pool.xlsx
+++ b/configs_pool.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6650"/>
   </bookViews>
   <sheets>
     <sheet name="pool" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,9 @@
     <t>glue</t>
   </si>
   <si>
+    <t>04446c50-65a5-4a85-b6cc-84f071793150</t>
+  </si>
+  <si>
     <t>[{"method": {"__name__": "quantize"}, "params": {"bits": 4}}]</t>
   </si>
   <si>
@@ -139,10 +142,16 @@
     <t>{"optimization_steps": ["step1", "step2"], "status": "success"}</t>
   </si>
   <si>
-    <t>text_generation</t>
-  </si>
-  <si>
-    <t>04446c50-65a5-4a85-b6cc-84f071793150</t>
+    <t>5adef2dc-f74b-4e9a-a683-e3be28c345e1</t>
+  </si>
+  <si>
+    <t>[{"method": {"__name__": "original"}, "params": {"float": 16}}]</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>translation</t>
   </si>
   <si>
     <t>config_id</t>
@@ -157,9 +166,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>Qwen7B</t>
-  </si>
-  <si>
     <t>rouge_rouge1</t>
   </si>
   <si>
@@ -167,6 +173,12 @@
   </si>
   <si>
     <t>rouge_rougeL</t>
+  </si>
+  <si>
+    <t>Qwen/Qwen3-4B</t>
+  </si>
+  <si>
+    <t>original</t>
   </si>
 </sst>
 </file>
@@ -529,139 +541,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="10.08984375" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" customWidth="1"/>
-    <col min="20" max="20" width="10.08984375" customWidth="1"/>
-    <col min="27" max="27" width="18.453125" customWidth="1"/>
-    <col min="28" max="28" width="16.08984375" customWidth="1"/>
-    <col min="30" max="30" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -672,53 +681,115 @@
       <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
         <v>0.85</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.92</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.1231565478659829E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.18505802145768049</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9.0235454570347984E-2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.16696451811827559</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>9.2020882368366106</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.18041212856769559</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.44377937912940979</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.24777436256408689</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.1409028439685544</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>111.06169772148129</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2778.34375</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1646.5</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>9.0040042653389232E-2</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3.2245852281379368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>5.4015350947763446E-3</v>
+      </c>
+      <c r="K3">
+        <v>8.2406512952758235E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.9101180601010803E-2</v>
+      </c>
+      <c r="M3">
+        <v>8.1643154174132287E-2</v>
+      </c>
+      <c r="N3">
+        <v>8.9166027780052151</v>
+      </c>
+      <c r="R3">
+        <v>9.6271824115347265E-2</v>
+      </c>
+      <c r="AA3">
+        <v>58.724928617477417</v>
+      </c>
+      <c r="AB3">
+        <v>15429.8916015625</v>
+      </c>
+      <c r="AC3">
+        <v>1615.30078125</v>
+      </c>
+      <c r="AE3">
+        <v>0.17028543474506411</v>
+      </c>
+      <c r="AF3">
+        <v>1.5722032094153331</v>
       </c>
     </row>
   </sheetData>
@@ -728,17 +799,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -750,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -762,21 +833,21 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -791,24 +862,24 @@
         <v>0.85</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0.18505802145768049</v>
@@ -820,24 +891,24 @@
         <v>0.85</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>9.0235454570347984E-2</v>
@@ -849,24 +920,24 @@
         <v>0.85</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0.16696451811827559</v>
@@ -878,21 +949,21 @@
         <v>0.85</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -907,21 +978,21 @@
         <v>0.85</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -936,21 +1007,21 @@
         <v>0.85</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -965,21 +1036,21 @@
         <v>0.85</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -994,21 +1065,21 @@
         <v>0.85</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1023,21 +1094,21 @@
         <v>0.85</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1052,21 +1123,21 @@
         <v>0.85</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1081,21 +1152,21 @@
         <v>0.85</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1110,21 +1181,21 @@
         <v>0.85</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1139,21 +1210,21 @@
         <v>0.85</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -1168,7 +1239,326 @@
         <v>0.85</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>5.4015350947763446E-3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>8.2406512952758235E-2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>3.9101180601010803E-2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>8.1643154174132287E-2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>8.9166027780052151</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>9.6271824115347265E-2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>58.724928617477417</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>15429.8916015625</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>1615.30078125</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>0.17028543474506411</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1.5722032094153331</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
